--- a/data/trans_orig/P36B06_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B06_R-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>791291</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>763346</v>
+        <v>761999</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>817979</v>
+        <v>819081</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7677362022992439</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7406226601601258</v>
+        <v>0.7393155758409601</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7936294398473135</v>
+        <v>0.7946985650825932</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1079</v>
@@ -764,19 +764,19 @@
         <v>1096471</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1071666</v>
+        <v>1068279</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1124625</v>
+        <v>1124074</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8343658094083942</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8154902709625123</v>
+        <v>0.8129132676688813</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8557895596334267</v>
+        <v>0.855370841223181</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1880</v>
@@ -785,19 +785,19 @@
         <v>1887762</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1848253</v>
+        <v>1850607</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1930516</v>
+        <v>1929053</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8050783108262747</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7882286041261559</v>
+        <v>0.7892327173899487</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8233115885655862</v>
+        <v>0.8226879088628453</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>239390</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>212702</v>
+        <v>211600</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>267335</v>
+        <v>268682</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2322637977007561</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2063705601526865</v>
+        <v>0.2053014349174069</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2593773398398743</v>
+        <v>0.2606844241590399</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>211</v>
@@ -835,19 +835,19 @@
         <v>217666</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>189512</v>
+        <v>190063</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>242471</v>
+        <v>245858</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1656341905916058</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1442104403665731</v>
+        <v>0.1446291587768188</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1845097290374877</v>
+        <v>0.1870867323311187</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>447</v>
@@ -856,19 +856,19 @@
         <v>457056</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>414302</v>
+        <v>415765</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>496565</v>
+        <v>494211</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1949216891737253</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1766884114344138</v>
+        <v>0.1773120911371548</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2117713958738441</v>
+        <v>0.2107672826100513</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>1279776</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1238983</v>
+        <v>1244695</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1313415</v>
+        <v>1314107</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7565553451070698</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7324400722739427</v>
+        <v>0.7358164854185231</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7764411047286934</v>
+        <v>0.7768506254105914</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1228</v>
@@ -981,19 +981,19 @@
         <v>1261214</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1227086</v>
+        <v>1229655</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1293912</v>
+        <v>1291216</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.794909942616625</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7733997578112444</v>
+        <v>0.7750190173645715</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8155183201554062</v>
+        <v>0.8138190146928982</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2471</v>
@@ -1002,19 +1002,19 @@
         <v>2540991</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2492011</v>
+        <v>2494140</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2584654</v>
+        <v>2587206</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7751185768048776</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7601775396478121</v>
+        <v>0.7608271019800351</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7884377936944504</v>
+        <v>0.7892164237227589</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>411807</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>378168</v>
+        <v>377476</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>452600</v>
+        <v>446888</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2434446548929302</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2235588952713067</v>
+        <v>0.2231493745894086</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2675599277260576</v>
+        <v>0.2641835145814769</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>325</v>
@@ -1052,19 +1052,19 @@
         <v>325399</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>292701</v>
+        <v>295397</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>359527</v>
+        <v>356958</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.205090057383375</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1844816798445937</v>
+        <v>0.1861809853071019</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2266002421887554</v>
+        <v>0.2249809826354288</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>729</v>
@@ -1073,19 +1073,19 @@
         <v>737205</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>693542</v>
+        <v>690990</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>786185</v>
+        <v>784056</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2248814231951224</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2115622063055496</v>
+        <v>0.2107835762772411</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.239822460352188</v>
+        <v>0.2391728980199648</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>424886</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>404139</v>
+        <v>404353</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>444125</v>
+        <v>445521</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7705479884832983</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7329227185238756</v>
+        <v>0.7333095327258107</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8054378069740772</v>
+        <v>0.8079690721416126</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>376</v>
@@ -1198,19 +1198,19 @@
         <v>398750</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>381307</v>
+        <v>380252</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>414292</v>
+        <v>413126</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8369857131613518</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8003731070079274</v>
+        <v>0.7981578040822508</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8696080902011982</v>
+        <v>0.8671615781941173</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>779</v>
@@ -1219,19 +1219,19 @@
         <v>823636</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>796867</v>
+        <v>798458</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>848270</v>
+        <v>849789</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8013429898650137</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7752985882325653</v>
+        <v>0.7768463153186163</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8253096803156879</v>
+        <v>0.8267880215271668</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>126522</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>107283</v>
+        <v>105887</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>147269</v>
+        <v>147055</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2294520115167017</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1945621930259229</v>
+        <v>0.1920309278583875</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2670772814761245</v>
+        <v>0.2666904672741897</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>76</v>
@@ -1269,19 +1269,19 @@
         <v>77662</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>62120</v>
+        <v>63286</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>95105</v>
+        <v>96160</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1630142868386482</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1303919097988016</v>
+        <v>0.1328384218058827</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1996268929920726</v>
+        <v>0.2018421959177491</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>200</v>
@@ -1290,19 +1290,19 @@
         <v>204184</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>179550</v>
+        <v>178031</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>230953</v>
+        <v>229362</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1986570101349863</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1746903196843121</v>
+        <v>0.1732119784728331</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2247014117674347</v>
+        <v>0.2231536846813837</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>2495953</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2446361</v>
+        <v>2447686</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2541360</v>
+        <v>2541805</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7624324004727626</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7472838513074984</v>
+        <v>0.7476885112648533</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.776302676384144</v>
+        <v>0.7764388177083755</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2683</v>
@@ -1415,19 +1415,19 @@
         <v>2756435</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2709991</v>
+        <v>2707242</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2799814</v>
+        <v>2797331</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8161987660817052</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8024462380335544</v>
+        <v>0.8016321527696091</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8290435107601938</v>
+        <v>0.8283081018421964</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5130</v>
@@ -1436,19 +1436,19 @@
         <v>5252388</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5181160</v>
+        <v>5190210</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5318619</v>
+        <v>5314565</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7897339003306083</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7790242503005844</v>
+        <v>0.7803849106857826</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7996922178556836</v>
+        <v>0.7990826702231252</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>777718</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>732311</v>
+        <v>731866</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>827310</v>
+        <v>825985</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2375675995272374</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2236973236158561</v>
+        <v>0.2235611822916247</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2527161486925016</v>
+        <v>0.2523114887351468</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>612</v>
@@ -1486,19 +1486,19 @@
         <v>620727</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>577348</v>
+        <v>579831</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>667171</v>
+        <v>669920</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1838012339182948</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1709564892398062</v>
+        <v>0.1716918981578034</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1975537619664456</v>
+        <v>0.1983678472303909</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1376</v>
@@ -1507,19 +1507,19 @@
         <v>1398445</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1332214</v>
+        <v>1336268</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1469673</v>
+        <v>1460623</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2102660996693916</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2003077821443166</v>
+        <v>0.200917329776875</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2209757496994156</v>
+        <v>0.2196150893142173</v>
       </c>
     </row>
     <row r="15">
@@ -1850,19 +1850,19 @@
         <v>846869</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>824025</v>
+        <v>824466</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>866761</v>
+        <v>866687</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8716408529893241</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8481288386417672</v>
+        <v>0.8485825448313186</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8921145607365946</v>
+        <v>0.8920389538274242</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1132</v>
@@ -1871,19 +1871,19 @@
         <v>1212841</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1189569</v>
+        <v>1188329</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1234554</v>
+        <v>1233501</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9073404703007721</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8899304312298764</v>
+        <v>0.8890029644537019</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9235844592346414</v>
+        <v>0.9227964719207593</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1914</v>
@@ -1892,19 +1892,19 @@
         <v>2059710</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2030859</v>
+        <v>2029500</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2087295</v>
+        <v>2091120</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8923141043237354</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8798150354561691</v>
+        <v>0.8792266667479812</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.904264809408423</v>
+        <v>0.9059217019813359</v>
       </c>
     </row>
     <row r="5">
@@ -1921,19 +1921,19 @@
         <v>124711</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>104819</v>
+        <v>104893</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>147555</v>
+        <v>147114</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1283591470106759</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1078854392634055</v>
+        <v>0.1079610461725759</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1518711613582329</v>
+        <v>0.1514174551686819</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>114</v>
@@ -1942,19 +1942,19 @@
         <v>123858</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>102145</v>
+        <v>103198</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>147130</v>
+        <v>148370</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09265952969922787</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07641554076535859</v>
+        <v>0.07720352807924066</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1100695687701236</v>
+        <v>0.1109970355462977</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>237</v>
@@ -1963,19 +1963,19 @@
         <v>248569</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>220984</v>
+        <v>217159</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>277420</v>
+        <v>278779</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1076858956762646</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09573519059157695</v>
+        <v>0.09407829801866403</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1201849645438309</v>
+        <v>0.1207733332520188</v>
       </c>
     </row>
     <row r="6">
@@ -2067,19 +2067,19 @@
         <v>1602667</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1566118</v>
+        <v>1570681</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1638996</v>
+        <v>1637527</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8164380668230523</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7978188713145289</v>
+        <v>0.8001436386637579</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8349451053596479</v>
+        <v>0.8341964459423613</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1381</v>
@@ -2088,19 +2088,19 @@
         <v>1483509</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1451503</v>
+        <v>1449328</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1515984</v>
+        <v>1516887</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8469628996034274</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8286899658398423</v>
+        <v>0.8274484169218879</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8655037493157225</v>
+        <v>0.8660190291954357</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2891</v>
@@ -2109,19 +2109,19 @@
         <v>3086176</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3036189</v>
+        <v>3040810</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3133896</v>
+        <v>3137196</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8308317372069525</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8173747008294877</v>
+        <v>0.8186187406994684</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8436784031529334</v>
+        <v>0.8445669548247745</v>
       </c>
     </row>
     <row r="8">
@@ -2138,19 +2138,19 @@
         <v>360332</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>324003</v>
+        <v>325472</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>396881</v>
+        <v>392318</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1835619331769477</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1650548946403515</v>
+        <v>0.1658035540576386</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.202181128685471</v>
+        <v>0.1998563613362421</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>249</v>
@@ -2159,19 +2159,19 @@
         <v>268054</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>235579</v>
+        <v>234676</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>300060</v>
+        <v>302235</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1530371003965726</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1344962506842776</v>
+        <v>0.1339809708045644</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1713100341601577</v>
+        <v>0.1725515830781123</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>594</v>
@@ -2180,19 +2180,19 @@
         <v>628386</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>580666</v>
+        <v>577366</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>678373</v>
+        <v>673752</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1691682627930476</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1563215968470665</v>
+        <v>0.1554330451752254</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.182625299170512</v>
+        <v>0.1813812593005314</v>
       </c>
     </row>
     <row r="9">
@@ -2284,19 +2284,19 @@
         <v>398642</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>380443</v>
+        <v>379859</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>414239</v>
+        <v>415552</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8302604100689766</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7923574690285856</v>
+        <v>0.7911402991505788</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.862743815402779</v>
+        <v>0.8654789289290408</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>373</v>
@@ -2305,19 +2305,19 @@
         <v>415430</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>399834</v>
+        <v>398718</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>427105</v>
+        <v>427108</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.905805366834707</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8717984150364658</v>
+        <v>0.8693647490076888</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9312597233362052</v>
+        <v>0.9312671192094278</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>734</v>
@@ -2326,19 +2326,19 @@
         <v>814072</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>790437</v>
+        <v>789475</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>833222</v>
+        <v>835720</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8671674234381379</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8419901528056543</v>
+        <v>0.8409654110798958</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8875662062098917</v>
+        <v>0.8902270567830514</v>
       </c>
     </row>
     <row r="11">
@@ -2355,19 +2355,19 @@
         <v>81499</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>65902</v>
+        <v>64589</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>99698</v>
+        <v>100282</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1697395899310234</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1372561845972211</v>
+        <v>0.1345210710709595</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2076425309714146</v>
+        <v>0.2088597008494213</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>39</v>
@@ -2376,19 +2376,19 @@
         <v>43201</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>31526</v>
+        <v>31523</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>58797</v>
+        <v>59913</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09419463316529299</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06874027666379467</v>
+        <v>0.06873288079057209</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1282015849635339</v>
+        <v>0.1306352509923112</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>115</v>
@@ -2397,19 +2397,19 @@
         <v>124700</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>105550</v>
+        <v>103052</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>148335</v>
+        <v>149297</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.132832576561862</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1124337937901084</v>
+        <v>0.1097729432169485</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1580098471943458</v>
+        <v>0.1590345889201038</v>
       </c>
     </row>
     <row r="12">
@@ -2501,19 +2501,19 @@
         <v>2848178</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2799198</v>
+        <v>2807734</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2891532</v>
+        <v>2896012</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8340883045586623</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8197444973656507</v>
+        <v>0.8222441554890356</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8467844887943597</v>
+        <v>0.8480963342119762</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2886</v>
@@ -2522,19 +2522,19 @@
         <v>3111780</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3067989</v>
+        <v>3074240</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3151632</v>
+        <v>3153894</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8773256992111593</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8649793354172173</v>
+        <v>0.8667416634834957</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8885614758791959</v>
+        <v>0.8891992202854032</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5539</v>
@@ -2543,19 +2543,19 @@
         <v>5959958</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5893856</v>
+        <v>5898991</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6021763</v>
+        <v>6018011</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8561174557975665</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8466222270650086</v>
+        <v>0.8473598674365209</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8649953418836137</v>
+        <v>0.8644563609171351</v>
       </c>
     </row>
     <row r="14">
@@ -2572,19 +2572,19 @@
         <v>566542</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>523188</v>
+        <v>518708</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>615522</v>
+        <v>606986</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1659116954413377</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.15321551120564</v>
+        <v>0.1519036657880239</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1802555026343491</v>
+        <v>0.1777558445109645</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>402</v>
@@ -2593,19 +2593,19 @@
         <v>435113</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>395261</v>
+        <v>392999</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>478904</v>
+        <v>472653</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1226743007888406</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1114385241208041</v>
+        <v>0.1108007797145968</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1350206645827828</v>
+        <v>0.1332583365165043</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>946</v>
@@ -2614,19 +2614,19 @@
         <v>1001655</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>939850</v>
+        <v>943602</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1067757</v>
+        <v>1062622</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1438825442024335</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1350046581163863</v>
+        <v>0.135543639082865</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1533777729349914</v>
+        <v>0.1526401325634791</v>
       </c>
     </row>
     <row r="15">
@@ -2957,19 +2957,19 @@
         <v>643274</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>622959</v>
+        <v>622198</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>661864</v>
+        <v>661373</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8572900370818234</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8302164491553551</v>
+        <v>0.8292024777426863</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8820648260165331</v>
+        <v>0.8814115925550757</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>786</v>
@@ -2978,19 +2978,19 @@
         <v>880427</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>857823</v>
+        <v>859369</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>900281</v>
+        <v>900415</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8861150434156442</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8633650802257701</v>
+        <v>0.864920442085427</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9060968861795845</v>
+        <v>0.9062322953316058</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1439</v>
@@ -2999,19 +2999,19 @@
         <v>1523701</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1494892</v>
+        <v>1494779</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1551163</v>
+        <v>1551420</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8737126299881836</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8571932645606938</v>
+        <v>0.8571285429449645</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8894600984647874</v>
+        <v>0.889607548558384</v>
       </c>
     </row>
     <row r="5">
@@ -3028,19 +3028,19 @@
         <v>107083</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>88493</v>
+        <v>88984</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>127398</v>
+        <v>128159</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1427099629181767</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1179351739834668</v>
+        <v>0.1185884074449243</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1697835508446448</v>
+        <v>0.1707975222573138</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>105</v>
@@ -3049,19 +3049,19 @@
         <v>113154</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>93300</v>
+        <v>93166</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>135758</v>
+        <v>134212</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1138849565843558</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09390311382041545</v>
+        <v>0.09376770466839446</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1366349197742298</v>
+        <v>0.1350795579145731</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>210</v>
@@ -3070,19 +3070,19 @@
         <v>220237</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>192775</v>
+        <v>192518</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>249046</v>
+        <v>249159</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1262873700118164</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1105399015352126</v>
+        <v>0.1103924514416153</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1428067354393061</v>
+        <v>0.1428714570550353</v>
       </c>
     </row>
     <row r="6">
@@ -3174,19 +3174,19 @@
         <v>1603959</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1560611</v>
+        <v>1562341</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1639178</v>
+        <v>1640247</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7735235066498156</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7526183146753119</v>
+        <v>0.7534528611237598</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7905079945421658</v>
+        <v>0.7910239283469445</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1538</v>
@@ -3195,19 +3195,19 @@
         <v>1605305</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1570315</v>
+        <v>1566580</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1642797</v>
+        <v>1638201</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8093095957443285</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7916691878366601</v>
+        <v>0.7897865462802097</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8282109566152035</v>
+        <v>0.8258938872619518</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3056</v>
@@ -3216,19 +3216,19 @@
         <v>3209264</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3154822</v>
+        <v>3154496</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3258073</v>
+        <v>3261746</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.791019513959212</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7776006016923613</v>
+        <v>0.7775201920600152</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8030498222907089</v>
+        <v>0.8039551612142138</v>
       </c>
     </row>
     <row r="8">
@@ -3245,19 +3245,19 @@
         <v>469616</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>434397</v>
+        <v>433328</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>512964</v>
+        <v>511234</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2264764933501844</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2094920054578343</v>
+        <v>0.2089760716530555</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2473816853246881</v>
+        <v>0.2465471388762402</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>366</v>
@@ -3266,19 +3266,19 @@
         <v>378244</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>340752</v>
+        <v>345348</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>413234</v>
+        <v>416969</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1906904042556715</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1717890433847966</v>
+        <v>0.1741061127380487</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2083308121633399</v>
+        <v>0.2102134537197904</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>798</v>
@@ -3287,19 +3287,19 @@
         <v>847860</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>799051</v>
+        <v>795378</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>902302</v>
+        <v>902628</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.208980486040788</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1969501777092911</v>
+        <v>0.1960448387857861</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2223993983076386</v>
+        <v>0.2224798079399847</v>
       </c>
     </row>
     <row r="9">
@@ -3391,19 +3391,19 @@
         <v>450318</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>431358</v>
+        <v>432148</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>468266</v>
+        <v>468079</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8234213336322147</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7887524100490394</v>
+        <v>0.790196745512443</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8562401293263802</v>
+        <v>0.8558984633269537</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>431</v>
@@ -3412,19 +3412,19 @@
         <v>453596</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>435217</v>
+        <v>433446</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>471751</v>
+        <v>469962</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8260120530633132</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7925420339780268</v>
+        <v>0.7893177394001109</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8590717944236383</v>
+        <v>0.8558152135862109</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>845</v>
@@ -3433,19 +3433,19 @@
         <v>903915</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>877790</v>
+        <v>875839</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>927729</v>
+        <v>927294</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8247193574495152</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8008834682414401</v>
+        <v>0.7991036990395378</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8464471626942013</v>
+        <v>0.8460501237163297</v>
       </c>
     </row>
     <row r="11">
@@ -3462,19 +3462,19 @@
         <v>96568</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>78620</v>
+        <v>78807</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>115528</v>
+        <v>114738</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1765786663677853</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1437598706736198</v>
+        <v>0.1441015366730463</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2112475899509607</v>
+        <v>0.209803254487557</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>95</v>
@@ -3483,19 +3483,19 @@
         <v>95544</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>77389</v>
+        <v>79178</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>113923</v>
+        <v>115694</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1739879469366868</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1409282055763616</v>
+        <v>0.1441847864137891</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2074579660219733</v>
+        <v>0.2106822605998893</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>182</v>
@@ -3504,19 +3504,19 @@
         <v>192112</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>168298</v>
+        <v>168733</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>218237</v>
+        <v>220188</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1752806425504849</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1535528373057987</v>
+        <v>0.1539498762836704</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1991165317585598</v>
+        <v>0.2008963009604622</v>
       </c>
     </row>
     <row r="12">
@@ -3608,19 +3608,19 @@
         <v>2697550</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2649801</v>
+        <v>2648119</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2747108</v>
+        <v>2745790</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8002657516073318</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7861002688501276</v>
+        <v>0.7856011565706678</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8149677376107217</v>
+        <v>0.8145766330751468</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2755</v>
@@ -3629,19 +3629,19 @@
         <v>2939329</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2892156</v>
+        <v>2891278</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2985190</v>
+        <v>2982563</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.833551765366896</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.820174093237007</v>
+        <v>0.819924991087108</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8465572102158797</v>
+        <v>0.8458122492715566</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5340</v>
@@ -3650,19 +3650,19 @@
         <v>5636880</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5562680</v>
+        <v>5568361</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5696669</v>
+        <v>5707497</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8172838743406068</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8065257274364618</v>
+        <v>0.8073495080612897</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8259526155528302</v>
+        <v>0.8275226156081088</v>
       </c>
     </row>
     <row r="14">
@@ -3679,19 +3679,19 @@
         <v>673268</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>623710</v>
+        <v>625028</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>721017</v>
+        <v>722699</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1997342483926682</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1850322623892783</v>
+        <v>0.1854233669248531</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2138997311498726</v>
+        <v>0.2143988434293323</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>566</v>
@@ -3700,19 +3700,19 @@
         <v>586942</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>541081</v>
+        <v>543708</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>634115</v>
+        <v>634993</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.166448234633104</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1534427897841203</v>
+        <v>0.1541877507284433</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1798259067629931</v>
+        <v>0.180075008912892</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1190</v>
@@ -3721,19 +3721,19 @@
         <v>1260209</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1200420</v>
+        <v>1189592</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1334409</v>
+        <v>1328728</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1827161256593932</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1740473844471699</v>
+        <v>0.1724773843918913</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1934742725635383</v>
+        <v>0.1926504919387104</v>
       </c>
     </row>
     <row r="15">
